--- a/Export/WorkingSheetArchive/Fundamentals_Restatement_Diff_Reports_wColDesc.xlsx
+++ b/Export/WorkingSheetArchive/Fundamentals_Restatement_Diff_Reports_wColDesc.xlsx
@@ -5,23 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/Export/WorkingSheetArchive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2EF17100A8FB12EF9EB598A92F69628B09C535E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76DBB23E-883E-4CC0-899A-F698CA3EAB4B}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_2EF17100A8FB12EF9EB598A92F69628B09C535E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3839012B-771D-4F86-A6D8-11AE5273661D}"/>
   <bookViews>
-    <workbookView xWindow="-23715" yWindow="1020" windowWidth="17520" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Diffs" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="298">
   <si>
     <t>gvkey</t>
   </si>
@@ -793,12 +805,135 @@
   <si>
     <t>count_of_restatements</t>
   </si>
+  <si>
+    <t>Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>Depreciation and Amortization</t>
+  </si>
+  <si>
+    <t>Noncontrolling Interest (Income Account)</t>
+  </si>
+  <si>
+    <t>Nonoperating Income (Expense)</t>
+  </si>
+  <si>
+    <t>Pretax Income</t>
+  </si>
+  <si>
+    <t>Income Taxes - Total</t>
+  </si>
+  <si>
+    <t>Working Capital (Balance Sheet)</t>
+  </si>
+  <si>
+    <t>Selling, General and Administrative Expense</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>chech</t>
+  </si>
+  <si>
+    <t>Cash and Cash Equivalents - Increase/(Decrease)</t>
+  </si>
+  <si>
+    <t>ci</t>
+  </si>
+  <si>
+    <t>Comprehensive Income - Total</t>
+  </si>
+  <si>
+    <t>dltt</t>
+  </si>
+  <si>
+    <t>Long-Term Debt - Total</t>
+  </si>
+  <si>
+    <t>esubc</t>
+  </si>
+  <si>
+    <t>Equity in Net Loss - Earnings</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>Gross Profit (Loss)</t>
+  </si>
+  <si>
+    <t>icapt</t>
+  </si>
+  <si>
+    <t>Invested Capital - Total</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Liabilities - Total</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>Net Income (Loss)</t>
+  </si>
+  <si>
+    <t>revt</t>
+  </si>
+  <si>
+    <t>Revenue - Total</t>
+  </si>
+  <si>
+    <t>spce</t>
+  </si>
+  <si>
+    <t>S&amp;P Core Earnings</t>
+  </si>
+  <si>
+    <t>xopr</t>
+  </si>
+  <si>
+    <t>Operating Expenses - Total</t>
+  </si>
+  <si>
+    <t>teq</t>
+  </si>
+  <si>
+    <t>Stockholders Equity - Total</t>
+  </si>
+  <si>
+    <t>epsfi</t>
+  </si>
+  <si>
+    <t>Earnings Per Share (Diluted) - Including Extraordinary Items</t>
+  </si>
+  <si>
+    <t>epspi</t>
+  </si>
+  <si>
+    <t>Earnings Per Share (Basic) - Including Extraordinary Items</t>
+  </si>
+  <si>
+    <t>A list</t>
+  </si>
+  <si>
+    <t>gdwl</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -814,13 +949,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -847,16 +1020,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1193,19 +1380,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q541"/>
+  <dimension ref="A1:Z541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,8 +1445,20 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1307,8 +1510,14 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1360,8 +1569,14 @@
       <c r="Q3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5</v>
       </c>
@@ -1413,8 +1628,14 @@
       <c r="Q4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>7</v>
       </c>
@@ -1466,8 +1687,14 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>11</v>
       </c>
@@ -1516,8 +1743,14 @@
       <c r="Q6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>13</v>
       </c>
@@ -1566,8 +1799,14 @@
       <c r="Q7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -1619,8 +1858,14 @@
       <c r="Q8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>19</v>
       </c>
@@ -1673,7 +1918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>29</v>
       </c>
@@ -1726,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>33</v>
       </c>
@@ -1778,8 +2023,14 @@
       <c r="Q11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>265</v>
+      </c>
+      <c r="T11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>35</v>
       </c>
@@ -1828,8 +2079,14 @@
       <c r="Q12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>267</v>
+      </c>
+      <c r="T12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>39</v>
       </c>
@@ -1878,8 +2135,14 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>269</v>
+      </c>
+      <c r="T13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>41</v>
       </c>
@@ -1928,8 +2191,14 @@
       <c r="Q14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S14" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43</v>
       </c>
@@ -1981,8 +2250,14 @@
       <c r="Q15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>273</v>
+      </c>
+      <c r="T15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>49</v>
       </c>
@@ -2016,8 +2291,14 @@
       <c r="Q16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S16" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>53</v>
       </c>
@@ -2069,8 +2350,14 @@
       <c r="Q17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>277</v>
+      </c>
+      <c r="T17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>55</v>
       </c>
@@ -2122,8 +2409,14 @@
       <c r="Q18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>279</v>
+      </c>
+      <c r="T18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>61</v>
       </c>
@@ -2175,8 +2468,17 @@
       <c r="Q19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="U19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>63</v>
       </c>
@@ -2228,8 +2530,17 @@
       <c r="Q20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S20" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="U20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>65</v>
       </c>
@@ -2281,8 +2592,14 @@
       <c r="Q21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S21" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>67</v>
       </c>
@@ -2334,8 +2651,14 @@
       <c r="Q22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S22" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>83</v>
       </c>
@@ -2372,8 +2695,14 @@
       <c r="Q23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S23" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>85</v>
       </c>
@@ -2425,8 +2754,14 @@
       <c r="Q24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>87</v>
       </c>
@@ -2478,8 +2813,17 @@
       <c r="Q25">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="U25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>89</v>
       </c>
@@ -2531,8 +2875,17 @@
       <c r="Q26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="U26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>91</v>
       </c>
@@ -2578,8 +2931,9 @@
       <c r="Q27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>95</v>
       </c>
@@ -2629,7 +2983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>97</v>
       </c>
@@ -2679,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>111</v>
       </c>
@@ -2732,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>113</v>
       </c>
@@ -2785,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>115</v>
       </c>
@@ -29529,6 +29883,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Export/WorkingSheetArchive/Fundamentals_Restatement_Diff_Reports_wColDesc.xlsx
+++ b/Export/WorkingSheetArchive/Fundamentals_Restatement_Diff_Reports_wColDesc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:Z541"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="T26" sqref="S25:T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
